--- a/docs/Szerep-Funkció_mátrix.xlsx
+++ b/docs/Szerep-Funkció_mátrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AdatBalapú\poseidon-etr\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B593D8-D92D-4D62-9189-DB31179FDF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C9EB65-783F-4D3E-9998-7E53B9865067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B97B303-462C-4DA8-A6EE-30CB06969385}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Regisztráció</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Évfolyam statisztika számítása</t>
   </si>
   <si>
-    <t>Pénzügyi adatok kezelése</t>
-  </si>
-  <si>
-    <t>Kifizetések kezelése</t>
-  </si>
-  <si>
     <t>Órarend megjelenítése</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
   </si>
   <si>
     <t>Regisztrált felhasználó</t>
-  </si>
-  <si>
-    <t>Hallgató</t>
   </si>
   <si>
     <t>Oktató</t>
@@ -150,12 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -490,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9457CC3F-6CAB-42A0-B34E-8A631710A8D5}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13:U23"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,286 +496,239 @@
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
       <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -804,10 +747,8 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -826,10 +767,8 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -848,10 +787,8 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -870,10 +807,8 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -892,53 +827,27 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="P13:P18"/>
-    <mergeCell ref="Q13:Q18"/>
-    <mergeCell ref="R13:R18"/>
-    <mergeCell ref="S13:S18"/>
-    <mergeCell ref="T13:T18"/>
-    <mergeCell ref="U13:U18"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="I13:I18"/>
+  <mergeCells count="18">
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="S12:S17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="O12:O17"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="Q12:Q17"/>
+    <mergeCell ref="R12:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
